--- a/DOWNLOADS/EDITAIS/U_762300_E_962782024_07-10-2025_10h00m/U_762300_E_962782024_07-10-2025_10h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_762300_E_962782024_07-10-2025_10h00m/U_762300_E_962782024_07-10-2025_10h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="246">
   <si>
     <t>Nº</t>
   </si>
@@ -517,247 +517,226 @@
     <t>Armário Armário Material: Chapa De Aço, Tipo: Pasta Suspensa, Quantidade Portas: 2 UN, Tipo Portas: Bi-Partida, Acabamento Superficial: Pintura Eletrostática A Pó, Cor: Cinza-Claro, Altura: 160 CM, Largura: 1200 MM, Profundidade: 60 CM, Características Adicionais: 5 Suportes Extraíveis</t>
   </si>
   <si>
-    <t>Cama Conjugada Material: Aço Quantidade Leitos: 2 Un Acabameno Superficial: Pinura Elerosáca Comprimeno: 196 Cm Largura: 86 Cm Caraceríscas Adicionais: Com Escada Laeral Alura: 180 Cm</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 01- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>"Colchão" Material: 100% Espuma Extrafirme Revestimento Tecido: 54% Algodão E 46% Viscose Proteção Tecido: Antiácaro, Antimofo E Antialérgico Altura: 18 Cm Comprimento: 188 Cm Largura: 88 Cm Densidade: 33</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 03- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>Travesseiro Material: Espuma Siliconizada Revestimento: 100% Algodão Comprimento: 70 Cm Largura: 50 Cm</t>
-  </si>
-  <si>
-    <t>Frigobar Capacidade: 122 L Tensão Alimentação: 110 V Cor: Branca Caraceríscas Adicionais: Etiqueta Eficiência Energéca "A"</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 12.000 BTU Tensão: 220 V Tipo: Split Modelo: Split Inverter Caraceríscas Adicionais 1: Controle Remoto/Display Digital/Timer/Selo Procel</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 18.000 BTU Tensão: 220 V Tipo: Split Modelo: Split Inverter Caraceríscas Adicionais 1: Controle Remoto/Display Digital/Timer/Selo Procel</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 07- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 30.000 BTU Tensão: 220 V Tipo: Split Modelo: Split Inverter Caraceríscas Adicionais 1: Ciclo Frio, Selo Procel, Controle Remoto Sem Fio</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 10- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>Aparelho Ar Condicionado Capacidade Refrigeração: 60.000 BTU Tensão: 127/220 V Tipo: Split Modelo: Split Inverter Caraceríscas Adicionais 1: Controle Remoto/Quente-Frio/Desumidificação/Filtro</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 12- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>Cortina Ar Comprimento: 150 Cm Potência: 280 W Tensão: 220 V Vazão: 2.500 M3 Marca de referência: Springer</t>
-  </si>
-  <si>
-    <t>Sofá Material Estrutura: Madeira Material Estofamento: Espuma Poliuretano Revestimento: Couro Sintético Cor: Preta Quantidade Assentos: 3 Un Largura: 2,01 M Profundidade: 72 Cm Altura: 75 Cm</t>
-  </si>
-  <si>
-    <t>Armário Aço Acabamento Superficial: Pintura Epóxi Cor: Cinza Quantidade Portas: 2 Un Quantidade Prateleiras: 2 Un Altura: 1,98 M Largura: 1 M Profundidade: 0,50 M Caraceríscas Adicionais: 1 gaveta, 2 Vãos, maçaneta com chave, Veneziana, Porta-Espelho. Material: Chapa De Aço</t>
-  </si>
-  <si>
-    <t>Idem ao Iem 16- Coa Reservada para ME/EPP em 25%, no limie de aé R$ 80.000,00, de acordo com o Inciso I, Ar. 48, da LPC 123/2006.</t>
-  </si>
-  <si>
-    <t>Porta-Papel Higiênico Material: aço cromado Caraceríscas adicionais: medidas aproximadas 33 x 12 x 11-cm Tipo: capacidade para 3 rolos Instalação: fixação parede através de parafuso</t>
-  </si>
-  <si>
-    <t>Televisor tamanho tela: 43 pol Voltagem: 110V caraceríscas adicionais: ful hd, smart tv, dvt, widescreen, 2 entradas rf tipo tela: led Acessórios: controle remoto</t>
-  </si>
-  <si>
-    <t>Televisor Tamanho Tela: 50 POL Voltagem: 110 V Caraceríscas Adicionais: 4k, 2 Hdmi, 2 Usb, Bluetooth Tipo Tela: Cristal Líquido Acessórios: Controle Remoto</t>
-  </si>
-  <si>
-    <t>Forno Microondas material: aço inoxidável capacidade: 31 l potência: 1.000 w voltagem: 110 v caraceríscas adicionais: timer, trava de segurança Cor: branca</t>
-  </si>
-  <si>
-    <t>Ventilador tipo: parede potência motor: 170 w tensão alimentação: 127/220 v caraceríscas adicionais: 03 velocidades/grade de proteção removível material: aço diâmetro: 60 cm Cor: preta</t>
-  </si>
-  <si>
-    <t>Ventilador tipo: coluna potência motor: 180 w tensão alimentação: 110 v caraceríscas adicionais: 3 pás, 3 velocidades, altura regulável material: aço diâmetro: 60 cm</t>
-  </si>
-  <si>
-    <t>Exaustor material: aço inoxidável aplicação: parede diâmetro: 50 cm tensão: 127/220 v Caraceríscas adicionais: c/ inversão de rotação (exaustão/ventilação)</t>
-  </si>
-  <si>
-    <t>Suporte De Videocassete / Televisão Material: Aço Tipo: Parede Articulado Tamanho: Para Tv Até 65" Acabamento Superficial: Pintura Eletrostática Caraceríscas Adicionais: Parafusos, Buchas De Fixação</t>
-  </si>
-  <si>
-    <t>Espelho material: vidro cristal formato: retangular espessura: 4 mm Comprimento: 40 cm Largura: 30 cm Caraceríscas adicionais: moldura em alumínio</t>
-  </si>
-  <si>
-    <t>Espelho Material: Vidro Cristal Lapidado Formato: Circular Caraceríscas Adicionais: Moldura Em Alumínio Anodizado,Parafuso Fixação Cro Diâmetro: 40 CM</t>
-  </si>
-  <si>
-    <t>Secador de cabelo portátil Tipo: Portátil Material: Polímero Tensão Alimentação: 110 V Potência: Mínimo 2.000 W Entre 3 e 5 combinações diferentes de velocidade e temperatura Caraceríscas Adicionais: Com Bico E Trava Uso: Humano</t>
-  </si>
-  <si>
-    <t>Chuveiro Elétrico material: termoplástico variações temperatura água: 3 cor: branca potência: 5.500 w tensão operação: 110 v Caraceríscas adicionais: mangueira e ducha manual e suporte para fixação Marca de referência: Lorenzetti</t>
-  </si>
-  <si>
-    <t>Ferro Passar Roupa Tipo: Elétrico Vapor E Spray Capacidade: mín 200 ML Tensão Alimentação: 120 V Caraceríscas Adicionais: Tanque Transparente E Controle Linear Temperatura</t>
-  </si>
-  <si>
-    <t>Sanduicheira Material: Aço Inoxidável Tensão: 110 V Caraceríscas Adicionais: Prepara 2 Sanduíches Por Vez</t>
-  </si>
-  <si>
-    <t>Lixeira material: plástico capacidade: 20 l tipo: com tampa e pedal cor: branca * formato: redondo</t>
-  </si>
-  <si>
-    <t>Lixeira material: plástico resistente capacidade: 50 l Caraceríscas adicionais: com tampa e pedal</t>
-  </si>
-  <si>
-    <t>Lixeira material: polietileno capacidade: 100 l Tipo: com tampa cor: branca caraceríscas adicionais: pedal em aço galvanizado</t>
-  </si>
-  <si>
-    <t>Lixeira Material: Polietileno Alta Densidade Capacidade: 240 L Tipo: Container Caraceríscas Adicionais: Com 2 Rodízios, Tampa Com Dobradiça Revestimento: Tratamento Em Uv</t>
-  </si>
-  <si>
-    <t>Banco Material: Madeira maciça Comprimento: 2 M Largura: 40 Cm Altura: 55 Cm Acabamento: Natural</t>
-  </si>
-  <si>
-    <t>Conjunto Lixeira Coleta Seletiva Material: Polietileno Quantidade Lixeiras: 4 UN Capacidade: 50 L Cor: Azul, Vermelha, Verde E Amarela Caraceríscas Adicionais: Tampa Vai-Vem, Suporte Em Aço Galvanizado Aplicação: Coleta De Lixo</t>
-  </si>
-  <si>
-    <t>Kit completo para caixa acoplada Universal. Marca de referência: Blukit</t>
-  </si>
-  <si>
-    <t>Anel Vedação Nome: Anel De Vedacao sanitário sem guia</t>
-  </si>
-  <si>
-    <t>Espude Vaso Sanitário Material: Pvc Bitola: 1 1/2 Pol</t>
-  </si>
-  <si>
-    <t>Trinco Material: Aço Cromado Tipo Encaixe: Pressão Macho/Fêmea Base Encaixe: Aço Cromado Tipo Pino: Fixado Na Porta Tipo Trava: Fixada No Batente Comprimento: 6 Cm Largura: 3 Cm Quantidade Parafusos: 6 Un Aplicação: Porta Interna De Madeira</t>
-  </si>
-  <si>
-    <t>Cabideiro duplo para toalhas Material: Aço Cromado Caraceríscas Adicionais: Tipo Gancho, Modelo Simples</t>
-  </si>
-  <si>
-    <t>Balde Material: Plástico Material Alça: Plástico Capacidade: 8L Cor: Branca</t>
-  </si>
-  <si>
-    <t>Carro Transporte Roupas Material Estrutura: Aço Inoxidável Tipo Proteção: Pára-Choque Envolvente De Borracha Quantidade Rodas Giratórias: 4 Rodízios 5" sendo 2 com giro de 360° Comprimento: 90 Cm Largura: 60 Cm Altura: 80 Cm</t>
-  </si>
-  <si>
-    <t>Tapete Banheiro Material: 100% Algodão Cor: Branca Largura: 45 Cm Comprimento: 70 Cm</t>
-  </si>
-  <si>
-    <t>Alicate Rebitador Peças / Acessórios Tipo: Manual Material Cabo: Emborrachado Material Corpo: Aço Bicos: 3/32, 1/8, 5/32 E 3/16"</t>
-  </si>
-  <si>
-    <t>Furadeira Tipo: Furadeira E Parafusadeira Tamanho Mandril: 3/8" Tensão/Voltagem: 110V Potência: 400W Caraceríscas Adicionais: Parafusadeira, 2 Velocidades</t>
-  </si>
-  <si>
-    <t>Ancinho Jardinagem Nome: Ancinho De Jardinagem Material: Polipropileno Caraceríscas Adicionais: Com Cabo Madeira 1,20m</t>
-  </si>
-  <si>
-    <t>Capa Protetora material externo: napa azul aplicação: colchão dimensões: 200 x 90 x 13 cm Caraceríscas adicionais: com zíper</t>
-  </si>
-  <si>
-    <t>Protetor Travesseiro material: napa comprimento: 70 cm cor: azul largura: 45 cm Caraceríscas adicionais: com zíper e ilhós</t>
-  </si>
-  <si>
-    <t>Cafeteira Elétrica material: aço inoxidável capacidade: 20 cafés de 75 ml caraceríscas adicionais: filtro nº 4 potência: 1.000 w voltagem: 110 v</t>
-  </si>
-  <si>
-    <t>Secador Roupa Tipo Varal material armação: tubo aço quantidade varetas: 6 un comprimento: 1,52 m largura: 0,56 m acabamento superficial: pintura epóxi pó caraceríscas adicionais: com abas altura: 0,94 m Cor: branca</t>
-  </si>
-  <si>
-    <t>Secador Roupa Tipo Varal material armação: tubo aço material vareta: ferro quantidade varetas: 6 un comprimento: 1,20 m largura: 0,60 m acabamento superficial: plástico Caraceríscas adicionais: parede</t>
-  </si>
-  <si>
-    <t>Porta-Cadeado material: ferro tratamento superficial: zincado comprimento: 64 mm altura: 30 mm Espessura: 2 mm</t>
-  </si>
-  <si>
-    <t>Cadeado material: latão maciço material haste: aço inoxidável cor: amarela altura: 25 mm largura: 17 mm Caraceríscas adicionais: capa termoplástica / 2 chaves</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas componentes: 110 peças aplicação: manutenção em geral Caraceríscas adicionais: maleta termoplástica Marca de refrência: Tramontina</t>
-  </si>
-  <si>
-    <t>Assento Vaso Sanitário material: plástico Cor: branca</t>
-  </si>
-  <si>
-    <t>Assento Vaso Sanitário Material: Plástico Cor: Branca Caraceríscas Adicionais: Almofadado</t>
-  </si>
-  <si>
-    <t>Mangueira Jardim Material: Pvc E Poliéster Trançado Diâmetro: 1/2 Pol Pressão Máxima: 12 Bar. Comprimento: 30 M Caraceríscas Adicionais: Com engate e esguicho</t>
-  </si>
-  <si>
-    <t>Torneira material corpo: metal tipo: automática diâmetro: 1/2 pol acabamento superficial: cromado Caraceríscas adicionais: acionamento hidromecânico com leve pressão manual Aplicação: lavatório e pia</t>
-  </si>
-  <si>
-    <t>Escova Limpeza Geral material corpo: plástico material cerdas: náilon caraceríscas adicionais: formato arredondado Aplicação: vaso sanitário</t>
-  </si>
-  <si>
-    <t>Conjunto Para Limpeza componentes: balde com esfregão vassoura e centrifugador, altura do cabo: 1,60m, capacidade do bade: 7L</t>
-  </si>
-  <si>
-    <t>Aparelho Purificador De Água Tipo: Tripla Filtragem Voltagem: 110V Capacidade: 2 L Capacidade Refrigeração: 1,5 L/H Caraceríscas Adicionais: Água Gelada E Água Natural Tipo Fixação: Parede Acessórios: Kit Instalação, Suporte, Pingadeira Removível</t>
-  </si>
-  <si>
-    <t>Lavadora Alta Pressão Pressão: 1800 Psi Vazão: 300 L/H Tensão: 110/220 V Caraceríscas Adicionais: Rodas, Gatilho Auto-Desligável, Misturador, Pisto- Tipo: Lava-Jato Modelo: Monofásico</t>
-  </si>
-  <si>
-    <t>Máquina Lavar Roupa Tipo: Automática Capacidade: 17 Kg Aplicação: Doméstica, Lavagem/Enxágüe E Centrifugação Caraceríscas Adicionais: Com 5 Programas De Lavagem E Abertura Superior Voltagem: 110V Material Gabinete: Metálico Material Cesto: Aço Inoxidável</t>
-  </si>
-  <si>
-    <t>Ducha Higiênica Material: Metal Comprimento: 1,20 M Diâmetro: 1/2 Pol Acabamento: Cromado</t>
-  </si>
-  <si>
-    <t>Luva Borracha Material: Látex Antiderrapante Uso: Limpeza Em Geral Tamanho: Médio Caraceríscas Adicionais: Sem Forro</t>
-  </si>
-  <si>
-    <t>Escada Extensível De Alumínio Tipo Degraus: 2 X 12 Capacidade: Mínimo 120 Kg Tipo Sapata: Antiderrapante Quantidade Degraus: 12 Un Altura Fechada: Mínimo 3,60 M Altura Aberta: Mínimo 6,40 M</t>
-  </si>
-  <si>
-    <t>Parafuso Sanitário Nome: KitParafuso fixador sanitário , bucha nº 10, embalagem com 2 unidades. Marca referência: Blukit ou similar</t>
-  </si>
-  <si>
-    <t>Tábua Passar Roupa Material Base: Aço Carbono, com pintura epóxi, tampo de madeira revestida com espuma de alta densidade recoberto Tecido térmico Comprimento: mín 0,86 M Largura: mín 0,30 M Caraceríscas Adicionais: Regulagem de altura 3 Posições, Passa Manga, Supor. Ferro.</t>
-  </si>
-  <si>
-    <t>Ducha Fria Banho Material: Pvc Cor: Branca Aplicação: Piscina</t>
-  </si>
-  <si>
-    <t>Conjunto Elétrico Componentes: 2 Interruptores Simples E 1 Tomada Corrente Nominal: 10 A Tensão Alimentação: 250 V Caraceríscas Adicionais: Placa, Suporte, Parafusos</t>
-  </si>
-  <si>
-    <t>Tomada: Conjunto de Tomada Energia 10A, 2X4 , Branco.</t>
-  </si>
-  <si>
-    <t>Reparo válvula hidráulica, material:plástico, bitola:1 1/2 pol, caraceríscas adicionais:uso interno, aplicação:válvula descarga docol ri 484 ap, componentes:kit-8</t>
-  </si>
-  <si>
-    <t>Registro pressão, material:bronze, diâmetro:1/2 pol, caraceríscas adicionais:registro regulador vazão/referência 13010006, tipo acabamento:cromado</t>
-  </si>
-  <si>
-    <t>Cortina Material: Tecido Largura mínimo 4,00 M Altura mínmo 2,80 M Cor: Cinza Caraceríscas Adicionais: Com Blackout Trilho: Varal Madeira</t>
-  </si>
-  <si>
-    <t>Resistência Elétrica Aplicação: Chuveiro Elétrico, Marca Lorenzetti Caraceríscas Adicionais: 3 Temperaturas Tensão Nominal: 220 V Potência Nominal: 5500 W</t>
-  </si>
-  <si>
-    <t>Ralo metálico Tamanho: 15x15 Caraceríscas Adicionais: Com sistema abre e fecha para banheiro</t>
-  </si>
-  <si>
-    <t>Ralo metálico Tamanho: 10x10 Caraceríscas Adicionais: Com sistema abre e fecha para banheiro</t>
-  </si>
-  <si>
-    <t>Mesa Refeitório Material Tampo: Granito Altura: Mín 0,75 Comprimento: 1,20m Acabamento Bordas: Acabamento Duplo Abaulado Material Estrutura: Tubo Metálico Acabamento Superficial Estrutura: Pintura Eletrostática Cinza Caraceríscas Adicionais: Bancos giratórios individuais com encosto.</t>
-  </si>
-  <si>
-    <t>DESCRIÇÃO NÃO ENCONTRADA NO PDF.</t>
+    <t>Cama Conjugada Material: Aço, Quantidade Leitos: 2 UN, Acabamento Superficial: Pintura Eletrostática, Comprimento: 196 CM, Largura: 86 CM, Características Adicionais: Com Escada Lateral, Altura: 180 CM</t>
+  </si>
+  <si>
+    <t>Colchão Material: 100 Espuma Extrafirme, Revestimento Tecido: 54 Algodão E 46 Viscose, Proteção Tecido: Antiácaro, Antimofo E Antialérgico, Altura: 18 CM, Comprimento: 188 CM, Largura: 88 CM, Densidade: 33</t>
+  </si>
+  <si>
+    <t>Travesseiro Material: Espuma Siliconizada, Revestimento: 100 Algodão, Comprimento: 70 CM, Largura: 50 CM</t>
+  </si>
+  <si>
+    <t>Frigobar Capacidade: 122 L, Tensão Alimentação: 110 V, Cor: Branca, Características Adicionais: Etiqueta Eficiência Energética A</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 12.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto/Display Digital/Timer/Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 18.000 BTU, Tensão: 110/220 V, Características Adicionais 1: Controle Remoto/Display Digital/Timer/Selo Procel</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 30.000 BTU, Tensão: 220 V, Características Adicionais 1: Ciclo Frio, Selo Procel, Controle Remoto Sem Fio</t>
+  </si>
+  <si>
+    <t>Aparelho Ar Condicionado Tipo: Split, Modelo: Split Inverter, Capacidade Refrigeração: 60.000 BTU, Tensão: 127/220 V, Características Adicionais 1: Controle Remoto/Quente-Frio/Desumidificação/Filtro</t>
+  </si>
+  <si>
+    <t>Cortina Ar Material: Metal E Plástico, Comprimento: 150 CM, Potência: 280 W, Tensão: 220 V, Vazão: 2.400 M3</t>
+  </si>
+  <si>
+    <t>Sofá Material Estrutura: Madeira, Material Estofamento: Espuma Poliuretano, Revestimento: Couro Sintético, Cor: Preta, Quantidade Assentos: 3 UN, Largura: 2,01 M, Profundidade: 72 CM, Altura: 75 CM</t>
+  </si>
+  <si>
+    <t>Armário Aço Material: Chapa Aço 26, Acabamento Superficial: Fosfatizado, Quantidade Portas: 2 UN, Altura: 1980 MM, Largura: 630 MM, Profundidade: 400 MM, Características Adicionais: Tipo Roupeiro, Pitão Para Cadeado</t>
+  </si>
+  <si>
+    <t>Porta-Papel Higiênico Material: Aço Cromado, Características Adicionais: Medidas Aproximadas 33 X 12 X 11-Cm, Tipo: Capacidade Para 3 Rolos, Instalação: Fixação Parede Através De Parafuso</t>
+  </si>
+  <si>
+    <t>Televisor Tamanho Tela: 43 POL, Voltagem: 110/220 V, Características Adicionais: Ful Hd, Smart Tv, Dvt, Widescreen, 2 Entradas Rf, Tipo Tela: Led, Acessórios: Controle Remoto</t>
+  </si>
+  <si>
+    <t>Televisor Tamanho Tela: 50 POL, Voltagem: 220 V, Características Adicionais: 4k, 2 Hdmi, 2 Usb, Bluetooth, Tipo Tela: Cristal Líquido, Acessórios: Controle Remoto</t>
+  </si>
+  <si>
+    <t>Forno Microondas Material: Aço Inoxidável, Capacidade: 31 L, Potência: 1.000 W, Voltagem: 110 V, Características Adicionais: Timer, Trava De Segurança, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Ventilador Tipo: Parede, Potência Motor: 170 W, Tensão Alimentação: 127/220 V, Características Adicionais: 03 Velocidades/Grade De Proteção Removível, Material: Aço, Diâmetro: 60 CM, Cor: Preta</t>
+  </si>
+  <si>
+    <t>Ventilador Tipo: Coluna, Potência Motor: 180 W, Tensão Alimentação: 110 V, Características Adicionais: 3 Velocidades, Altura Regulável, Material: Aço, Diâmetro: 60 CM, Vazão: 13.800 M3/H</t>
+  </si>
+  <si>
+    <t>Exaustor Material: Aço Inoxidável, Aplicação: Parede, Diâmetro: 50 CM, Tensão: 127/220 V, Características Adicionais: C/ Inversão De Rotação (Exaustão/Ventilação)</t>
+  </si>
+  <si>
+    <t>Suporte De Videocassete / Televisao Material: Aço, Tipo: Parede Articulado, Tamanho: Para Tv Até 65, Acabamento Superficial: Pintura Eletrostática, Características Adicionais: Parafusos, Buchas De Fixação</t>
+  </si>
+  <si>
+    <t>Espelho Material: Vidro Cristal, Formato: Retangular, Espessura: 4 MM, Comprimento: 60 CM, Largura: 45 CM, Características Adicionais: Moldura Em Alumínio</t>
+  </si>
+  <si>
+    <t>Espelho Material: Vidro Cristal Lapidado, Formato: Circular, Características Adicionais: Moldura Em Alumínio Anodizado, Parafuso Fixação Cro, Diâmetro: 40 CM</t>
+  </si>
+  <si>
+    <t>Secador / Soprador Tipo: Portátil, Material: Polímero, Tensão Alimentação: 110 V, Potência: 2.000 W, Seletor Temperatura: 5, Características Adicionais: Com Bico E Trava, Uso: Humano</t>
+  </si>
+  <si>
+    <t>Chuveiro Elétrico Material: Termoplástico, Variações Temperatura Água: 3, Cor: Branca, Potência: 5.500 W, Tensão Operação: 110 V, Características Adicionais: Mangueira E Ducha Manual E Suporte Para Fixação</t>
+  </si>
+  <si>
+    <t>Ferro Passar Roupa Tipo: Elétrico Vapor E Spray, Capacidade: 200 ML, Tensão Alimentação: 120 V, Características Adicionais: Tanque Transparente E Controle Linear Temperatura</t>
+  </si>
+  <si>
+    <t>Sanduicheira Material: Aço Inoxidável, Tensão: 220 V, Características Adicionais: Prepara 2 Sanduíches Por Vez</t>
+  </si>
+  <si>
+    <t>Lixeira Material: Plástico, Capacidade: 20 L, Tipo: Com Tampa E Pedal, Cor: Branca, Formato: Redondo</t>
+  </si>
+  <si>
+    <t>Lixeira Material: Plástico Resistente, Capacidade: 50 L, Características Adicionais: Com Tampa E Pedal</t>
+  </si>
+  <si>
+    <t>Lixeira Material: Polietileno, Capacidade: 100 L, Tipo: Cilindrico Com Tampa, Características Adicionais: Pedal Em Aço Galvanizado, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Lixeira Material: Polietileno Alta Densidade, Capacidade: 240 L, Tipo: Container, Características Adicionais: Com 2 Rodízios, Tampa Com Dobradiça, Revestimento: Tratamento Em Uv</t>
+  </si>
+  <si>
+    <t>Banco Material: Madeira, Comprimento: 2 M, Largura: 40 CM, Altura: 55 CM, Acabamento: Natural</t>
+  </si>
+  <si>
+    <t>Conjunto Lixeira Coleta Seletiva Material: Polietileno, Quantidade Lixeiras: 4 UN, Capacidade: 50 L, Cor: Azul, Vermelha, Verde E Amarela, Características Adicionais: Tampa Vai-Vem, Suporte Em Aço Galvanizado, Aplicação: Coleta De Lixo</t>
+  </si>
+  <si>
+    <t>Reparo válvula hidráulica Tipo Fixação: Roscável, Aplicação: Caixa Acoplada Ao Vaso, Modelo Astra, Componentes: Borracha, Flutuador, Guia E Haste</t>
+  </si>
+  <si>
+    <t>Anel vedação Material: Massa Emborrachada, Características Adicionais: Vaso Sanitário</t>
+  </si>
+  <si>
+    <t>Espude Vaso Sanitário Material: Pvc, Bitola: 1 1/2 POL</t>
+  </si>
+  <si>
+    <t>Trinco Material: Aço Cromado, Tipo Encaixe: Pressão Macho/Fêmea, Base Encaixe: Aço Cromado, Tipo Pino: Fixado Na Porta, Tipo Trava: Fixada No Batente, Comprimento: 6 CM, Largura: 3 CM, Quantidade Parafusos: 6 UN, Aplicação: Porta Interna De Madeira</t>
+  </si>
+  <si>
+    <t>Cabideiro Material: Aço Cromado, Características Adicionais: Tipo Gancho, Modelo Simples</t>
+  </si>
+  <si>
+    <t>Balde Material: Plástico, Material Alça: Plástico, Capacidade: 7,20 L, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Carro Transporte Roupas Material Estrutura: Aço Inoxidável, Tipo Proteção: Pára-Choque Envolvente De Borracha, Quantidade Rodas Giratórias: 4 Rodízios 5, Comprimento: 115 CM, Largura: 60 CM, Altura: 90 CM, Características Adicionais: 2 Portas, 3 Prateleiras, Alça Para Transporte, Tipo: Roupa Limpa</t>
+  </si>
+  <si>
+    <t>Tapete Banheiro Material: 100 Algodão, Cor: Branca, Largura: 48 CM, Comprimento: 70 CM</t>
+  </si>
+  <si>
+    <t>Alicate Rebitador Peças / Acessórios Tipo: Manual, Material Cabo: Emborrachado, Material Corpo: Aço, Bicos: 3/32, 1/8, 5/32 E 3/16</t>
+  </si>
+  <si>
+    <t>Furadeira Tipo: Furadeira E Parafusadeira, Potência: 400 W, Tamanho Mandril: 8 A 10 MM, Tensão Alimentação: 110 V, Características Adicionais: Mandril Sem Chave, 24 Posições Para Parafusamento, Velocidade: 0 A 1.400 RPM</t>
+  </si>
+  <si>
+    <t>Ancinho jardinagem Material: Aço, Quantidade Dentes: 14 UN, Altura Dentes: 92 MM, Largura Total: 35 MM, Espessura Dentes: 3,75 MM, Características Adicionais: Com Cabo Madeira</t>
+  </si>
+  <si>
+    <t>Napa Material: 100 Pvc(Frente), 50Poliéster E 50Algodão(Verso), Largura: 1,40 M, Cor: Verde Escuro, Aplicação: Revestimento De Colchão, Cadeira E Sofá</t>
+  </si>
+  <si>
+    <t>Protetor Travesseiro Material: Napa, Comprimento: 70 CM, Largura: 45 CM, Cor: Branca, Características Adicionais: Com Zíper E Ilhós</t>
+  </si>
+  <si>
+    <t>Cafeteira Elétrica Material: Aço Inoxidável, Capacidade: 20 Cafés De 75 Ml, Voltagem: 220 V, Características Adicionais: Filtro Nº 4, Potência: 1.000 W</t>
+  </si>
+  <si>
+    <t>Secador Roupa Tipo Varal Material Armação: Tubo Aço, Quantidade Varetas: 6 UN, Comprimento: 1,52 M, Largura: 0,56 M, Acabamento Superficial: Pintura Epóxi Pó, Características Adicionais: Com Abas, Altura: 0,94 M, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Secador Roupa Tipo Varal Material Armação: Tubo Aço, Material Vareta: Ferro, Quantidade Varetas: 6 UN, Comprimento: 1,20 M, Largura: 0,60 M, Acabamento Superficial: Plástico, Características Adicionais: Parede</t>
+  </si>
+  <si>
+    <t>Porta-Cadeado Material: Ferro, Tratamento Superficial: Zincado, Comprimento: 64 MM, Altura: 30 MM, Espessura: 2 MM</t>
+  </si>
+  <si>
+    <t>Cadeado Material: Latão Maciço, Material Haste: Aço Inoxidável, Cor: Amarela, Altura: 25 MM, Largura: 17 MM, Características Adicionais: Capa Termoplástica / 2 Chaves</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Componentes: 110 Peças, Aplicação: Manutenção Em Geral, Características Adicionais: Maleta Termoplástica</t>
+  </si>
+  <si>
+    <t>Assento Vaso Sanitário Material: Plástico, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Assento Vaso Sanitário Material: Plástico, Cor: Branca, Características Adicionais: Almofadado</t>
+  </si>
+  <si>
+    <t>Mangueira Jardim Material: Pvc Trançado Em Fio Poliéster, Diâmetro: 3/4 POL, Espessura: 2 MM, Pressão Máxima: 6 BAR., Comprimento: 50 M, Cor: Cristal, Características Adicionais: Com Engate Rosqueador, Uso: Jardinagem</t>
+  </si>
+  <si>
+    <t>Torneira Características: Acionamento Hidromecânico Com Leve Pressão Manual, Material Corpo: Metal, Tipo: Automática, Diâmetro: 1/2 POL, Acabamento Superficial: Cromado, Aplicações: Lavatório E Pia</t>
+  </si>
+  <si>
+    <t>Escova Limpeza Geral Material Corpo: Plástico, Material Cerdas: Náilon, Características Adicionais: Formato Arredondado, Aplicação: Vaso Sanitário</t>
+  </si>
+  <si>
+    <t>Conjunto Para Limpeza Componentes: Balde Com Esfregão Vassoura E Centrifugador Em Ino</t>
+  </si>
+  <si>
+    <t>Aparelho Purificador De Água Tipo: Tripla Filtragem, Voltagem: 110/220 V, Capacidade: 2 L, Capacidade Refrigeração: 1,5 L/H, Características Adicionais: Água Gelada E Água Natural, Tipo Fixação: Parede, Acessórios: Kit Instalação, Suporte, Pingadeira Removível</t>
+  </si>
+  <si>
+    <t>Lavadora Alta Pressão Pressão: 1800 PSI, Vazão: 300 L/H, Tensão: 110/220 V, Características Adicionais: Rodas, Gatilho Auto-Desligável, Misturador, Pisto-, Tipo: Lava-Jato, Modelo: Monofásico</t>
+  </si>
+  <si>
+    <t>Máquina Lavar Roupa Tipo: Automática, Capacidade: 15 KG, Aplicação: Doméstica, Lavagem/Enxágüe E Centrifugação, Características Adicionais: Com 5 Programas De Lavagem E Abertura Superior, Voltagem: 127/220 V, Material Gabinete: Metálico, Material Cesto: Aço Inoxidável</t>
+  </si>
+  <si>
+    <t>Ducha Higiênica Material: Metal, Comprimento: 1,20 M, Diâmetro: 1/2 POL, Acabamento: Cromado</t>
+  </si>
+  <si>
+    <t>Luva Borracha Material: Látex Antiderrapante, Tamanho: Médio, Características Adicionais: Sem Forro, Uso: Limpeza Em Geral</t>
+  </si>
+  <si>
+    <t>Escada Extensível De Alumínio Capacidade: 120 KG, Tipo Sapata: Antiderrapante, Tipo Degraus: 2 X 12, Quantidade Degraus: 12 UN, Altura Fechada: 3,90 M, Altura Aberta: 6,60 M</t>
+  </si>
+  <si>
+    <t>Acessórios banheiro Material: Latão Cromado, Componentes: Kit Parafusos Para Fixação E Anel Vedação, Tipo: Suporte Para Fixação De Bacia Sanitária</t>
+  </si>
+  <si>
+    <t>Tábua Passar Roupa Material Base: Aglomerado Naval, Espuma Recoberto Tecido Algodão, Material Pés: Tubo Aço Com Pintura Epoxi, Comprimento: 0,90 M, Largura: 0,30 M, Características Adicionais: Regul.Altura 3 Posições, Passa Manga, Supor. Ferro</t>
+  </si>
+  <si>
+    <t>Ducha Banho Material: Pvc, Características Adicionais: Resistência Substituível, Bloqueador De Resíduos, Cor: Branca, Potência: 6.400 W, Tensão Operação: 220v / 60hz</t>
+  </si>
+  <si>
+    <t>Conjunto Elétrico Componentes: 2 Interruptores Simples E 1 Tomada, Corrente Nominal: 10 A, Tensão Alimentação: 250 V, Características Adicionais: Placa, Suporte, Parafusos</t>
+  </si>
+  <si>
+    <t>Tomada Modelo: Simples, Tipo: Fêmea, Formato Contato: 2p T, Cor Corpo: Branca, Corrente Nominal: 10 A, Tensão Nominal: 250 V, Características Adicionais: Com Espelho 4 X 2, Tipo Fixação: Encaixe</t>
+  </si>
+  <si>
+    <t>Reparo Válvula Hidráulica Material: Plástico, Bitola: 1 1/2 POL, Características Adicionais: Uso Interno, Aplicação: Válvula Descarga Docol Ri 484 Ap, Componentes: Kit-8</t>
+  </si>
+  <si>
+    <t>Registro Pressão Material: Bronze, Diâmetro: 1/2 POL, Características Adicionais: Registro Regulador Vazão/Referência 13010006, Tipo Acabamento: Cromado</t>
+  </si>
+  <si>
+    <t>Cortina Material: Tecido, Largura: 4,00 M, Altura: 2,80 M, Cor: C/ Cor, Características Adicionais: Com Bandô, Trilho: Varal Madeira</t>
+  </si>
+  <si>
+    <t>Resistência Elétrica Aplicação: Chuveiro Elétrico, Marca Lorenzetti, Características Adicionais: 3 Temperaturas, Tensão Nominal: 220 V, Potência Nominal: 5500 W</t>
+  </si>
+  <si>
+    <t>Ralo Aplicação: Banheiros, Lavabos, Varandas, Garagens, Característica Adicionais: Anti-Dengue/Anti-Inseto/Anti-Odor, Bitola: 150 MM, Material: Abs, Dimensão Da Grelha: 15 X 15 CM</t>
+  </si>
+  <si>
+    <t>Ralo Metalico Tamanho: 10x10 CM, Características Adicionais: Pedal Aço Galvanizado, Cor: Branca</t>
+  </si>
+  <si>
+    <t>Mesa Refeitório Material Tampo: Granito, Espessura: 3 CM, Diâmetro: 1,40 M, Altura: 80 CM, Acabamento Bordas: Acabamento Duplo Abaulado, Material Estrutura: Tubo Metálico, Acabamento Superficial Estrutura: Pintura Eletrostática Prêta, Características Adicionais: 3 Pés Interligados E 3 Braços De Apoio Do Tampo Em</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1185,13 +1164,13 @@
         <v>316905.6</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1202,7 +1181,7 @@
         <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3">
         <v>80</v>
@@ -1214,13 +1193,13 @@
         <v>79226.40000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1231,7 +1210,7 @@
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D4">
         <v>525</v>
@@ -1243,13 +1222,13 @@
         <v>189698.25</v>
       </c>
       <c r="G4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1260,7 +1239,7 @@
         <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D5">
         <v>175</v>
@@ -1272,13 +1251,13 @@
         <v>63232.75</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1289,7 +1268,7 @@
         <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D6">
         <v>700</v>
@@ -1301,13 +1280,13 @@
         <v>40131</v>
       </c>
       <c r="G6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1318,7 +1297,7 @@
         <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -1330,13 +1309,13 @@
         <v>34475.8</v>
       </c>
       <c r="G7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1347,7 +1326,7 @@
         <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -1359,13 +1338,13 @@
         <v>62623.49999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H8" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1376,7 +1355,7 @@
         <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -1388,13 +1367,13 @@
         <v>74037</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1405,7 +1384,7 @@
         <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -1417,13 +1396,13 @@
         <v>22533</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I10" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1434,7 +1413,7 @@
         <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11">
         <v>23</v>
@@ -1446,13 +1425,13 @@
         <v>125380.59</v>
       </c>
       <c r="G11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1463,7 +1442,7 @@
         <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D12">
         <v>7</v>
@@ -1475,13 +1454,13 @@
         <v>38159.31</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H12" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1492,7 +1471,7 @@
         <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D13">
         <v>23</v>
@@ -1504,13 +1483,13 @@
         <v>256509.57</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H13" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I13" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1521,7 +1500,7 @@
         <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -1533,13 +1512,13 @@
         <v>78068.13</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H14" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1550,7 +1529,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1562,13 +1541,13 @@
         <v>5772.25</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1579,7 +1558,7 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -1591,13 +1570,13 @@
         <v>43719.6</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H16" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1608,7 +1587,7 @@
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>117</v>
@@ -1620,13 +1599,13 @@
         <v>282342.06</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I17" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1637,7 +1616,7 @@
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D18">
         <v>33</v>
@@ -1649,13 +1628,13 @@
         <v>79634.93999999999</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1666,7 +1645,7 @@
         <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -1678,13 +1657,13 @@
         <v>2163.5</v>
       </c>
       <c r="G19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1695,7 +1674,7 @@
         <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -1707,13 +1686,13 @@
         <v>35988</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1724,7 +1703,7 @@
         <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D21">
         <v>20</v>
@@ -1736,13 +1715,13 @@
         <v>53052.60000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1753,7 +1732,7 @@
         <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -1765,13 +1744,13 @@
         <v>12053.55</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1782,7 +1761,7 @@
         <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D23">
         <v>150</v>
@@ -1794,13 +1773,13 @@
         <v>50206.5</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I23" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1811,7 +1790,7 @@
         <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D24">
         <v>50</v>
@@ -1823,13 +1802,13 @@
         <v>13432</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H24" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I24" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1840,7 +1819,7 @@
         <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1852,13 +1831,13 @@
         <v>5836.05</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H25" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I25" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1869,7 +1848,7 @@
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D26">
         <v>20</v>
@@ -1881,13 +1860,13 @@
         <v>2646.6</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1898,7 +1877,7 @@
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>40</v>
@@ -1910,13 +1889,13 @@
         <v>7118</v>
       </c>
       <c r="G27" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1927,7 +1906,7 @@
         <v>112</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D28">
         <v>40</v>
@@ -1939,13 +1918,13 @@
         <v>10130.8</v>
       </c>
       <c r="G28" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H28" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1956,7 +1935,7 @@
         <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1968,13 +1947,13 @@
         <v>1574.1</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H29" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1985,7 +1964,7 @@
         <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>100</v>
@@ -1997,13 +1976,13 @@
         <v>8400</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2014,7 +1993,7 @@
         <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -2026,13 +2005,13 @@
         <v>2089.5</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H31" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2043,7 +2022,7 @@
         <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -2055,13 +2034,13 @@
         <v>1617.45</v>
       </c>
       <c r="G32" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2072,7 +2051,7 @@
         <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D33">
         <v>60</v>
@@ -2084,13 +2063,13 @@
         <v>3419.4</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H33" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2101,7 +2080,7 @@
         <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D34">
         <v>30</v>
@@ -2113,13 +2092,13 @@
         <v>2479.8</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2130,7 +2109,7 @@
         <v>119</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D35">
         <v>20</v>
@@ -2142,13 +2121,13 @@
         <v>4132.6</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2159,7 +2138,7 @@
         <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -2171,13 +2150,13 @@
         <v>5209.95</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H36" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2188,7 +2167,7 @@
         <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D37">
         <v>30</v>
@@ -2200,13 +2179,13 @@
         <v>34366.5</v>
       </c>
       <c r="G37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2217,7 +2196,7 @@
         <v>122</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -2229,13 +2208,13 @@
         <v>2491.8</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2246,7 +2225,7 @@
         <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D39">
         <v>50</v>
@@ -2258,13 +2237,13 @@
         <v>5206.5</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2275,7 +2254,7 @@
         <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D40">
         <v>150</v>
@@ -2287,13 +2266,13 @@
         <v>2400</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I40" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2304,7 +2283,7 @@
         <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D41">
         <v>150</v>
@@ -2316,13 +2295,13 @@
         <v>381</v>
       </c>
       <c r="G41" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I41" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2333,7 +2312,7 @@
         <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D42">
         <v>100</v>
@@ -2345,13 +2324,13 @@
         <v>1687</v>
       </c>
       <c r="G42" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2362,7 +2341,7 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D43">
         <v>50</v>
@@ -2374,13 +2353,13 @@
         <v>408.5</v>
       </c>
       <c r="G43" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2391,7 +2370,7 @@
         <v>128</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2403,13 +2382,13 @@
         <v>953.1</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I44" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2420,7 +2399,7 @@
         <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -2432,13 +2411,13 @@
         <v>16483.55</v>
       </c>
       <c r="G45" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I45" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2449,7 +2428,7 @@
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D46">
         <v>100</v>
@@ -2461,13 +2440,13 @@
         <v>3233</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I46" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2478,7 +2457,7 @@
         <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2490,13 +2469,13 @@
         <v>277.5</v>
       </c>
       <c r="G47" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2507,7 +2486,7 @@
         <v>132</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D48">
         <v>5</v>
@@ -2519,13 +2498,13 @@
         <v>1922.2</v>
       </c>
       <c r="G48" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I48" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2536,7 +2515,7 @@
         <v>133</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D49">
         <v>50</v>
@@ -2548,13 +2527,13 @@
         <v>1454</v>
       </c>
       <c r="G49" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H49" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I49" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2565,7 +2544,7 @@
         <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D50">
         <v>700</v>
@@ -2577,13 +2556,13 @@
         <v>42875</v>
       </c>
       <c r="G50" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H50" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2594,7 +2573,7 @@
         <v>135</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D51">
         <v>700</v>
@@ -2606,13 +2585,13 @@
         <v>17031</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I51" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2623,7 +2602,7 @@
         <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D52">
         <v>20</v>
@@ -2635,13 +2614,13 @@
         <v>4016.4</v>
       </c>
       <c r="G52" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I52" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2652,7 +2631,7 @@
         <v>137</v>
       </c>
       <c r="C53" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D53">
         <v>30</v>
@@ -2664,13 +2643,13 @@
         <v>3961.2</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H53" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I53" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2681,7 +2660,7 @@
         <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D54">
         <v>30</v>
@@ -2693,13 +2672,13 @@
         <v>5539.2</v>
       </c>
       <c r="G54" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I54" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2710,7 +2689,7 @@
         <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D55">
         <v>200</v>
@@ -2722,13 +2701,13 @@
         <v>836</v>
       </c>
       <c r="G55" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H55" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I55" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2739,7 +2718,7 @@
         <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D56">
         <v>50</v>
@@ -2751,13 +2730,13 @@
         <v>396.5</v>
       </c>
       <c r="G56" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I56" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2768,7 +2747,7 @@
         <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -2780,13 +2759,13 @@
         <v>3193.6</v>
       </c>
       <c r="G57" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2797,7 +2776,7 @@
         <v>142</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D58">
         <v>50</v>
@@ -2809,13 +2788,13 @@
         <v>2081.5</v>
       </c>
       <c r="G58" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H58" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I58" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2826,7 +2805,7 @@
         <v>143</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D59">
         <v>40</v>
@@ -2838,13 +2817,13 @@
         <v>3714</v>
       </c>
       <c r="G59" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H59" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I59" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2855,7 +2834,7 @@
         <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -2867,13 +2846,13 @@
         <v>1169.6</v>
       </c>
       <c r="G60" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H60" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2884,7 +2863,7 @@
         <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D61">
         <v>100</v>
@@ -2896,13 +2875,13 @@
         <v>5613</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H61" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I61" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2913,7 +2892,7 @@
         <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D62">
         <v>100</v>
@@ -2925,13 +2904,13 @@
         <v>1502</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I62" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2942,7 +2921,7 @@
         <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D63">
         <v>20</v>
@@ -2954,13 +2933,13 @@
         <v>2112.8</v>
       </c>
       <c r="G63" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H63" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I63" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2971,7 +2950,7 @@
         <v>148</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D64">
         <v>20</v>
@@ -2983,13 +2962,13 @@
         <v>10701.6</v>
       </c>
       <c r="G64" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I64" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3000,7 +2979,7 @@
         <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -3012,13 +2991,13 @@
         <v>2978.3</v>
       </c>
       <c r="G65" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H65" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3029,7 +3008,7 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D66">
         <v>15</v>
@@ -3041,13 +3020,13 @@
         <v>41809.95</v>
       </c>
       <c r="G66" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H66" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I66" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3058,7 +3037,7 @@
         <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D67">
         <v>30</v>
@@ -3070,13 +3049,13 @@
         <v>1767.9</v>
       </c>
       <c r="G67" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H67" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3087,7 +3066,7 @@
         <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D68">
         <v>100</v>
@@ -3099,13 +3078,13 @@
         <v>272</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I68" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3116,7 +3095,7 @@
         <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D69">
         <v>5</v>
@@ -3128,13 +3107,13 @@
         <v>4094.5</v>
       </c>
       <c r="G69" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H69" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I69" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3145,7 +3124,7 @@
         <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D70">
         <v>200</v>
@@ -3157,13 +3136,13 @@
         <v>742</v>
       </c>
       <c r="G70" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I70" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3174,7 +3153,7 @@
         <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>20</v>
@@ -3186,13 +3165,13 @@
         <v>7041</v>
       </c>
       <c r="G71" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H71" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I71" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3203,7 +3182,7 @@
         <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D72">
         <v>30</v>
@@ -3215,13 +3194,13 @@
         <v>1518.6</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I72" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3232,7 +3211,7 @@
         <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D73">
         <v>100</v>
@@ -3244,13 +3223,13 @@
         <v>1068</v>
       </c>
       <c r="G73" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H73" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I73" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3261,7 +3240,7 @@
         <v>158</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D74">
         <v>100</v>
@@ -3273,13 +3252,13 @@
         <v>591</v>
       </c>
       <c r="G74" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H74" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3290,7 +3269,7 @@
         <v>159</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D75">
         <v>50</v>
@@ -3302,13 +3281,13 @@
         <v>4981.5</v>
       </c>
       <c r="G75" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="H75" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I75" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3319,7 +3298,7 @@
         <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D76">
         <v>30</v>
@@ -3331,13 +3310,13 @@
         <v>1071.9</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H76" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I76" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3348,7 +3327,7 @@
         <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -3360,13 +3339,13 @@
         <v>5233.400000000001</v>
       </c>
       <c r="G77" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I77" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3377,7 +3356,7 @@
         <v>162</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D78">
         <v>50</v>
@@ -3389,13 +3368,13 @@
         <v>1553.5</v>
       </c>
       <c r="G78" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I78" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3406,7 +3385,7 @@
         <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D79">
         <v>30</v>
@@ -3418,13 +3397,13 @@
         <v>1153.5</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H79" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I79" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3435,7 +3414,7 @@
         <v>164</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D80">
         <v>30</v>
@@ -3447,13 +3426,13 @@
         <v>422.4</v>
       </c>
       <c r="G80" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H80" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I80" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3464,7 +3443,7 @@
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D81">
         <v>30</v>
@@ -3476,13 +3455,13 @@
         <v>36450</v>
       </c>
       <c r="G81" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I81" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3492,9 +3471,6 @@
       <c r="B82" t="s">
         <v>166</v>
       </c>
-      <c r="C82" t="s">
-        <v>247</v>
-      </c>
       <c r="D82">
         <v>1</v>
       </c>
@@ -3505,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H82" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I82" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3521,9 +3497,6 @@
       <c r="B83" t="s">
         <v>166</v>
       </c>
-      <c r="C83" t="s">
-        <v>247</v>
-      </c>
       <c r="D83">
         <v>1</v>
       </c>
@@ -3534,13 +3507,13 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H83" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I83" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
